--- a/state_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
+++ b/state_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U247"/>
+  <dimension ref="A1:U268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0088547540262853</v>
+        <v>0.0088660774587091</v>
       </c>
       <c r="H2" t="n">
         <v>0.019</v>
@@ -581,7 +581,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>0.00477</v>
+        <v>0.00479</v>
       </c>
       <c r="M2" t="n">
         <v>0.013</v>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0088547540262853</v>
+        <v>0.0088660774587091</v>
       </c>
       <c r="H3" t="n">
         <v>0.019</v>
@@ -662,7 +662,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.00477</v>
+        <v>0.00479</v>
       </c>
       <c r="M3" t="n">
         <v>0.013</v>
@@ -1072,7 +1072,7 @@
         <v>0.00734</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0154072906213289</v>
+        <v>0.0154305128371471</v>
       </c>
       <c r="H8" t="n">
         <v>0.11</v>
@@ -1153,7 +1153,7 @@
         <v>0.00734</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0154072906213289</v>
+        <v>0.0154305128371471</v>
       </c>
       <c r="H9" t="n">
         <v>0.11</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.879</v>
+        <v>0.87925</v>
       </c>
       <c r="G10" t="n">
-        <v>0.856647058823529</v>
+        <v>0.856602941176471</v>
       </c>
       <c r="H10" t="n">
         <v>1.094</v>
@@ -1247,7 +1247,7 @@
         <v>0.951</v>
       </c>
       <c r="N10" t="n">
-        <v>0.98192</v>
+        <v>0.98203</v>
       </c>
       <c r="O10" t="n">
         <v>1848331</v>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.879</v>
+        <v>0.87925</v>
       </c>
       <c r="G11" t="n">
-        <v>0.856647058823529</v>
+        <v>0.856602941176471</v>
       </c>
       <c r="H11" t="n">
         <v>1.094</v>
@@ -1324,7 +1324,7 @@
         <v>0.951</v>
       </c>
       <c r="N11" t="n">
-        <v>0.98192</v>
+        <v>0.98203</v>
       </c>
       <c r="O11" t="n">
         <v>1848331</v>
@@ -1388,7 +1388,7 @@
         <v>1.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.53202453408832</v>
+        <v>1.53193833941951</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -1469,7 +1469,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0087143001023315</v>
+        <v>0.0087235304277528</v>
       </c>
       <c r="H13" t="n">
         <v>0.019</v>
@@ -1550,7 +1550,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0087143001023315</v>
+        <v>0.0087235304277528</v>
       </c>
       <c r="H14" t="n">
         <v>0.019</v>
@@ -1971,7 +1971,7 @@
         <v>0.01237</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0199059928144808</v>
+        <v>0.0199356594065468</v>
       </c>
       <c r="H19" t="n">
         <v>0.130821894750947</v>
@@ -2052,7 +2052,7 @@
         <v>0.01237</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0199059928144808</v>
+        <v>0.0199356594065468</v>
       </c>
       <c r="H20" t="n">
         <v>0.130821894750947</v>
@@ -2129,7 +2129,7 @@
         <v>0.8835</v>
       </c>
       <c r="G21" t="n">
-        <v>0.872565217391304</v>
+        <v>0.872532608695652</v>
       </c>
       <c r="H21" t="n">
         <v>1.094</v>
@@ -2140,10 +2140,10 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.8784999999999999</v>
+        <v>0.87825</v>
       </c>
       <c r="M21" t="n">
-        <v>0.971</v>
+        <v>0.97134</v>
       </c>
       <c r="N21" t="n">
         <v>1.03632</v>
@@ -2206,7 +2206,7 @@
         <v>0.8835</v>
       </c>
       <c r="G22" t="n">
-        <v>0.872565217391304</v>
+        <v>0.872532608695652</v>
       </c>
       <c r="H22" t="n">
         <v>1.094</v>
@@ -2217,10 +2217,10 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.8784999999999999</v>
+        <v>0.87825</v>
       </c>
       <c r="M22" t="n">
-        <v>0.971</v>
+        <v>0.97134</v>
       </c>
       <c r="N22" t="n">
         <v>1.03632</v>
@@ -2287,7 +2287,7 @@
         <v>1.5</v>
       </c>
       <c r="G23" t="n">
-        <v>1.61458501693625</v>
+        <v>1.61451833804151</v>
       </c>
       <c r="H23" t="n">
         <v>8.5</v>
@@ -2368,7 +2368,7 @@
         <v>0.008</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0085138861928528</v>
+        <v>0.0085225189852086</v>
       </c>
       <c r="H24" t="n">
         <v>0.019</v>
@@ -2449,7 +2449,7 @@
         <v>0.008</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0085138861928528</v>
+        <v>0.0085225189852086</v>
       </c>
       <c r="H25" t="n">
         <v>0.019</v>
@@ -2870,7 +2870,7 @@
         <v>0.01493</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0199607294506363</v>
+        <v>0.0199846709109</v>
       </c>
       <c r="H30" t="n">
         <v>0.130821894750947</v>
@@ -2951,7 +2951,7 @@
         <v>0.01493</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0199607294506363</v>
+        <v>0.0199846709109</v>
       </c>
       <c r="H31" t="n">
         <v>0.130821894750947</v>
@@ -3190,7 +3190,7 @@
         <v>0.8905</v>
       </c>
       <c r="G34" t="n">
-        <v>0.880637931034483</v>
+        <v>0.880612068965517</v>
       </c>
       <c r="H34" t="n">
         <v>1.107</v>
@@ -3201,7 +3201,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.872</v>
+        <v>0.87175</v>
       </c>
       <c r="M34" t="n">
         <v>0.9978</v>
@@ -3267,7 +3267,7 @@
         <v>0.8905</v>
       </c>
       <c r="G35" t="n">
-        <v>0.880637931034483</v>
+        <v>0.880612068965517</v>
       </c>
       <c r="H35" t="n">
         <v>1.107</v>
@@ -3278,7 +3278,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.872</v>
+        <v>0.87175</v>
       </c>
       <c r="M35" t="n">
         <v>0.9978</v>
@@ -3498,7 +3498,7 @@
         <v>0.02</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0293720499043921</v>
+        <v>0.0293672894418387</v>
       </c>
       <c r="H38" t="n">
         <v>0.17</v>
@@ -3575,7 +3575,7 @@
         <v>0.02</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0293720499043921</v>
+        <v>0.0293672894418387</v>
       </c>
       <c r="H39" t="n">
         <v>0.17</v>
@@ -3737,7 +3737,7 @@
         <v>1.4</v>
       </c>
       <c r="G41" t="n">
-        <v>1.52321062978283</v>
+        <v>1.52314863010877</v>
       </c>
       <c r="H41" t="n">
         <v>8.5</v>
@@ -3818,7 +3818,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0087015357493567</v>
+        <v>0.008707162040310501</v>
       </c>
       <c r="H42" t="n">
         <v>0.018</v>
@@ -3899,7 +3899,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0087015357493567</v>
+        <v>0.008707162040310501</v>
       </c>
       <c r="H43" t="n">
         <v>0.018</v>
@@ -4397,7 +4397,7 @@
         <v>0.01671</v>
       </c>
       <c r="G49" t="n">
-        <v>0.021170310219052</v>
+        <v>0.021185787293994</v>
       </c>
       <c r="H49" t="n">
         <v>0.130821894750947</v>
@@ -4478,7 +4478,7 @@
         <v>0.01671</v>
       </c>
       <c r="G50" t="n">
-        <v>0.021170310219052</v>
+        <v>0.021185787293994</v>
       </c>
       <c r="H50" t="n">
         <v>0.130821894750947</v>
@@ -4717,13 +4717,13 @@
         <v>0.8985</v>
       </c>
       <c r="G53" t="n">
-        <v>0.874603448275862</v>
+        <v>0.874594827586207</v>
       </c>
       <c r="H53" t="n">
         <v>1.107</v>
       </c>
       <c r="I53" t="n">
-        <v>1.0688</v>
+        <v>1.06884</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4731,7 +4731,7 @@
         <v>0.8915</v>
       </c>
       <c r="M53" t="n">
-        <v>1.00864</v>
+        <v>1.00853</v>
       </c>
       <c r="N53" t="n">
         <v>1.04658</v>
@@ -4794,13 +4794,13 @@
         <v>0.8985</v>
       </c>
       <c r="G54" t="n">
-        <v>0.874603448275862</v>
+        <v>0.874594827586207</v>
       </c>
       <c r="H54" t="n">
         <v>1.107</v>
       </c>
       <c r="I54" t="n">
-        <v>1.0688</v>
+        <v>1.06884</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -4808,7 +4808,7 @@
         <v>0.8915</v>
       </c>
       <c r="M54" t="n">
-        <v>1.00864</v>
+        <v>1.00853</v>
       </c>
       <c r="N54" t="n">
         <v>1.04658</v>
@@ -5025,7 +5025,7 @@
         <v>0.022</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0326823947319783</v>
+        <v>0.0326776342694249</v>
       </c>
       <c r="H57" t="n">
         <v>0.177</v>
@@ -5102,7 +5102,7 @@
         <v>0.022</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0326823947319783</v>
+        <v>0.0326776342694249</v>
       </c>
       <c r="H58" t="n">
         <v>0.177</v>
@@ -5422,7 +5422,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0087100493003323</v>
+        <v>0.008714763017997401</v>
       </c>
       <c r="H62" t="n">
         <v>0.017</v>
@@ -5503,7 +5503,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0087100493003323</v>
+        <v>0.008714763017997401</v>
       </c>
       <c r="H63" t="n">
         <v>0.017</v>
@@ -6001,7 +6001,7 @@
         <v>0.01243</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0187764706423483</v>
+        <v>0.0187909432611046</v>
       </c>
       <c r="H69" t="n">
         <v>0.130821894750947</v>
@@ -6082,7 +6082,7 @@
         <v>0.01243</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0187764706423483</v>
+        <v>0.0187909432611046</v>
       </c>
       <c r="H70" t="n">
         <v>0.130821894750947</v>
@@ -6398,24 +6398,24 @@
         <v>0.8835</v>
       </c>
       <c r="G74" t="n">
-        <v>0.866916666666667</v>
+        <v>0.866905</v>
       </c>
       <c r="H74" t="n">
         <v>1.107</v>
       </c>
       <c r="I74" t="n">
-        <v>1.076</v>
+        <v>1.0758</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.8784999999999999</v>
+        <v>0.87825</v>
       </c>
       <c r="M74" t="n">
         <v>1.0144</v>
       </c>
       <c r="N74" t="n">
-        <v>1.0624</v>
+        <v>1.06208</v>
       </c>
       <c r="O74" t="n">
         <v>1848331</v>
@@ -6475,24 +6475,24 @@
         <v>0.8835</v>
       </c>
       <c r="G75" t="n">
-        <v>0.866916666666667</v>
+        <v>0.866905</v>
       </c>
       <c r="H75" t="n">
         <v>1.107</v>
       </c>
       <c r="I75" t="n">
-        <v>1.076</v>
+        <v>1.0758</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.8784999999999999</v>
+        <v>0.87825</v>
       </c>
       <c r="M75" t="n">
         <v>1.0144</v>
       </c>
       <c r="N75" t="n">
-        <v>1.0624</v>
+        <v>1.06208</v>
       </c>
       <c r="O75" t="n">
         <v>1848331</v>
@@ -6706,7 +6706,7 @@
         <v>0.022</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0344596482409123</v>
+        <v>0.034455046460444</v>
       </c>
       <c r="H78" t="n">
         <v>0.203</v>
@@ -6783,7 +6783,7 @@
         <v>0.022</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0344596482409123</v>
+        <v>0.034455046460444</v>
       </c>
       <c r="H79" t="n">
         <v>0.203</v>
@@ -7022,7 +7022,7 @@
         <v>1.1</v>
       </c>
       <c r="G82" t="n">
-        <v>1.32943298696544</v>
+        <v>1.32964916908693</v>
       </c>
       <c r="H82" t="n">
         <v>8.5</v>
@@ -7103,7 +7103,7 @@
         <v>0.008</v>
       </c>
       <c r="G83" t="n">
-        <v>0.008552310541617199</v>
+        <v>0.0085554327118996</v>
       </c>
       <c r="H83" t="n">
         <v>0.021</v>
@@ -7184,7 +7184,7 @@
         <v>0.008</v>
       </c>
       <c r="G84" t="n">
-        <v>0.008552310541617199</v>
+        <v>0.0085554327118996</v>
       </c>
       <c r="H84" t="n">
         <v>0.021</v>
@@ -7682,7 +7682,7 @@
         <v>0.008670000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0165263185309494</v>
+        <v>0.0165592333940109</v>
       </c>
       <c r="H90" t="n">
         <v>0.130821894750947</v>
@@ -7693,7 +7693,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00337</v>
+        <v>0.00363</v>
       </c>
       <c r="M90" t="n">
         <v>0.02935</v>
@@ -7763,7 +7763,7 @@
         <v>0.008670000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0165263185309494</v>
+        <v>0.0165592333940109</v>
       </c>
       <c r="H91" t="n">
         <v>0.130821894750947</v>
@@ -7774,7 +7774,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.00337</v>
+        <v>0.00363</v>
       </c>
       <c r="M91" t="n">
         <v>0.02935</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.913</v>
+        <v>0.91305</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8786</v>
+        <v>0.878625</v>
       </c>
       <c r="H95" t="n">
         <v>1.107</v>
@@ -8093,10 +8093,10 @@
         <v>0.914</v>
       </c>
       <c r="M95" t="n">
-        <v>1.0303</v>
+        <v>1.03045</v>
       </c>
       <c r="N95" t="n">
-        <v>1.0624</v>
+        <v>1.06208</v>
       </c>
       <c r="O95" t="n">
         <v>1848331</v>
@@ -8153,10 +8153,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.913</v>
+        <v>0.91305</v>
       </c>
       <c r="G96" t="n">
-        <v>0.8786</v>
+        <v>0.878625</v>
       </c>
       <c r="H96" t="n">
         <v>1.107</v>
@@ -8170,10 +8170,10 @@
         <v>0.914</v>
       </c>
       <c r="M96" t="n">
-        <v>1.0303</v>
+        <v>1.03045</v>
       </c>
       <c r="N96" t="n">
-        <v>1.0624</v>
+        <v>1.06208</v>
       </c>
       <c r="O96" t="n">
         <v>1848331</v>
@@ -8387,7 +8387,7 @@
         <v>0.02</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0337679815742457</v>
+        <v>0.0337633797937774</v>
       </c>
       <c r="H99" t="n">
         <v>0.285</v>
@@ -8464,7 +8464,7 @@
         <v>0.02</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0337679815742457</v>
+        <v>0.0337633797937774</v>
       </c>
       <c r="H100" t="n">
         <v>0.285</v>
@@ -8703,7 +8703,7 @@
         <v>1.095</v>
       </c>
       <c r="G103" t="n">
-        <v>1.35106815290796</v>
+        <v>1.35129634514732</v>
       </c>
       <c r="H103" t="n">
         <v>8.5</v>
@@ -8784,7 +8784,7 @@
         <v>0.008</v>
       </c>
       <c r="G104" t="n">
-        <v>0.009944996911804701</v>
+        <v>0.009948025886044201</v>
       </c>
       <c r="H104" t="n">
         <v>0.074</v>
@@ -8865,7 +8865,7 @@
         <v>0.008</v>
       </c>
       <c r="G105" t="n">
-        <v>0.009944996911804701</v>
+        <v>0.009948025886044201</v>
       </c>
       <c r="H105" t="n">
         <v>0.074</v>
@@ -9360,10 +9360,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00477</v>
+        <v>0.00506</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0120388119525688</v>
+        <v>0.0121081761772129</v>
       </c>
       <c r="H111" t="n">
         <v>0.0628526792577804</v>
@@ -9374,7 +9374,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00337</v>
+        <v>0.00363</v>
       </c>
       <c r="M111" t="n">
         <v>0.02222</v>
@@ -9441,10 +9441,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00477</v>
+        <v>0.00506</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0120388119525688</v>
+        <v>0.0121081761772129</v>
       </c>
       <c r="H112" t="n">
         <v>0.0628526792577804</v>
@@ -9455,7 +9455,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00337</v>
+        <v>0.00363</v>
       </c>
       <c r="M112" t="n">
         <v>0.02222</v>
@@ -9760,13 +9760,13 @@
         <v>0.9035</v>
       </c>
       <c r="G116" t="n">
-        <v>0.86165</v>
+        <v>0.861675</v>
       </c>
       <c r="H116" t="n">
         <v>1.107</v>
       </c>
       <c r="I116" t="n">
-        <v>1.0715</v>
+        <v>1.0713</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -9777,7 +9777,7 @@
         <v>1.0294</v>
       </c>
       <c r="N116" t="n">
-        <v>1.0624</v>
+        <v>1.06208</v>
       </c>
       <c r="O116" t="n">
         <v>1848331</v>
@@ -9837,13 +9837,13 @@
         <v>0.9035</v>
       </c>
       <c r="G117" t="n">
-        <v>0.86165</v>
+        <v>0.861675</v>
       </c>
       <c r="H117" t="n">
         <v>1.107</v>
       </c>
       <c r="I117" t="n">
-        <v>1.0715</v>
+        <v>1.0713</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -9854,7 +9854,7 @@
         <v>1.0294</v>
       </c>
       <c r="N117" t="n">
-        <v>1.0624</v>
+        <v>1.06208</v>
       </c>
       <c r="O117" t="n">
         <v>1848331</v>
@@ -10384,7 +10384,7 @@
         <v>1.025</v>
       </c>
       <c r="G124" t="n">
-        <v>1.08773481957463</v>
+        <v>1.08796301181399</v>
       </c>
       <c r="H124" t="n">
         <v>3.27</v>
@@ -10465,7 +10465,7 @@
         <v>0.01</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0108292036705012</v>
+        <v>0.010830964194953</v>
       </c>
       <c r="H125" t="n">
         <v>0.074</v>
@@ -10546,7 +10546,7 @@
         <v>0.01</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0108292036705012</v>
+        <v>0.010830964194953</v>
       </c>
       <c r="H126" t="n">
         <v>0.074</v>
@@ -11041,10 +11041,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.00476</v>
+        <v>0.00506</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0099677852257415</v>
+        <v>0.0100952117677716</v>
       </c>
       <c r="H132" t="n">
         <v>0.0628526792577804</v>
@@ -11055,7 +11055,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.00337</v>
+        <v>0.00363</v>
       </c>
       <c r="M132" t="n">
         <v>0.01808</v>
@@ -11122,10 +11122,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.00476</v>
+        <v>0.00506</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0099677852257415</v>
+        <v>0.0100952117677716</v>
       </c>
       <c r="H133" t="n">
         <v>0.0628526792577804</v>
@@ -11136,7 +11136,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.00337</v>
+        <v>0.00363</v>
       </c>
       <c r="M133" t="n">
         <v>0.01808</v>
@@ -11438,16 +11438,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.8865</v>
+        <v>0.88645</v>
       </c>
       <c r="G137" t="n">
-        <v>0.845916666666667</v>
+        <v>0.845941666666667</v>
       </c>
       <c r="H137" t="n">
         <v>1.08</v>
       </c>
       <c r="I137" t="n">
-        <v>1.064</v>
+        <v>1.06375</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -11455,10 +11455,10 @@
         <v>0.87</v>
       </c>
       <c r="M137" t="n">
-        <v>1.0101</v>
+        <v>1.00989</v>
       </c>
       <c r="N137" t="n">
-        <v>1.0607</v>
+        <v>1.06077</v>
       </c>
       <c r="O137" t="n">
         <v>1848331</v>
@@ -11515,16 +11515,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.8865</v>
+        <v>0.88645</v>
       </c>
       <c r="G138" t="n">
-        <v>0.845916666666667</v>
+        <v>0.845941666666667</v>
       </c>
       <c r="H138" t="n">
         <v>1.08</v>
       </c>
       <c r="I138" t="n">
-        <v>1.064</v>
+        <v>1.06375</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -11532,10 +11532,10 @@
         <v>0.87</v>
       </c>
       <c r="M138" t="n">
-        <v>1.0101</v>
+        <v>1.00989</v>
       </c>
       <c r="N138" t="n">
-        <v>1.0607</v>
+        <v>1.06077</v>
       </c>
       <c r="O138" t="n">
         <v>1848331</v>
@@ -12065,7 +12065,7 @@
         <v>0.92</v>
       </c>
       <c r="G145" t="n">
-        <v>1.0067486840949</v>
+        <v>1.00698118184821</v>
       </c>
       <c r="H145" t="n">
         <v>3</v>
@@ -12146,7 +12146,7 @@
         <v>0.01</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0120035474601644</v>
+        <v>0.0120058536407759</v>
       </c>
       <c r="H146" t="n">
         <v>0.074</v>
@@ -12227,7 +12227,7 @@
         <v>0.01</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0120035474601644</v>
+        <v>0.0120058536407759</v>
       </c>
       <c r="H147" t="n">
         <v>0.074</v>
@@ -12722,10 +12722,10 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.00577</v>
+        <v>0.00611</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0108058959432886</v>
+        <v>0.0109692855174509</v>
       </c>
       <c r="H153" t="n">
         <v>0.0628526792577804</v>
@@ -12736,7 +12736,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
-        <v>0.00729</v>
+        <v>0.00731</v>
       </c>
       <c r="M153" t="n">
         <v>0.01781</v>
@@ -12803,10 +12803,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.00577</v>
+        <v>0.00611</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0108058959432886</v>
+        <v>0.0109692855174509</v>
       </c>
       <c r="H154" t="n">
         <v>0.0628526792577804</v>
@@ -12817,7 +12817,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.00729</v>
+        <v>0.00731</v>
       </c>
       <c r="M154" t="n">
         <v>0.01781</v>
@@ -13122,13 +13122,13 @@
         <v>0.88</v>
       </c>
       <c r="G158" t="n">
-        <v>0.8341833333333331</v>
+        <v>0.834208333333333</v>
       </c>
       <c r="H158" t="n">
         <v>1.08</v>
       </c>
       <c r="I158" t="n">
-        <v>1.064</v>
+        <v>1.06375</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -13199,13 +13199,13 @@
         <v>0.88</v>
       </c>
       <c r="G159" t="n">
-        <v>0.8341833333333331</v>
+        <v>0.834208333333333</v>
       </c>
       <c r="H159" t="n">
         <v>1.08</v>
       </c>
       <c r="I159" t="n">
-        <v>1.064</v>
+        <v>1.06375</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -13743,13 +13743,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G166" t="n">
-        <v>1.27981809926905</v>
+        <v>1.24014886472653</v>
       </c>
       <c r="H166" t="n">
-        <v>6.38330316727282</v>
+        <v>5.02162203993545</v>
       </c>
       <c r="I166" t="n">
         <v>3.82</v>
@@ -13827,7 +13827,7 @@
         <v>0.0105</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0123739300872937</v>
+        <v>0.0123772611680095</v>
       </c>
       <c r="H167" t="n">
         <v>0.074</v>
@@ -13908,7 +13908,7 @@
         <v>0.0105</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0123739300872937</v>
+        <v>0.0123772611680095</v>
       </c>
       <c r="H168" t="n">
         <v>0.074</v>
@@ -14403,10 +14403,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.00788</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0124561136275354</v>
+        <v>0.0126641569297558</v>
       </c>
       <c r="H174" t="n">
         <v>0.05</v>
@@ -14417,10 +14417,10 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>0.00791</v>
+        <v>0.00827</v>
       </c>
       <c r="M174" t="n">
-        <v>0.02009</v>
+        <v>0.02055</v>
       </c>
       <c r="N174" t="n">
         <v>0.03448</v>
@@ -14484,10 +14484,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.00788</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0124561136275354</v>
+        <v>0.0126641569297558</v>
       </c>
       <c r="H175" t="n">
         <v>0.05</v>
@@ -14498,10 +14498,10 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>0.00791</v>
+        <v>0.00827</v>
       </c>
       <c r="M175" t="n">
-        <v>0.02009</v>
+        <v>0.02055</v>
       </c>
       <c r="N175" t="n">
         <v>0.03448</v>
@@ -14803,7 +14803,7 @@
         <v>0.885</v>
       </c>
       <c r="G179" t="n">
-        <v>0.852033333333333</v>
+        <v>0.8520616666666671</v>
       </c>
       <c r="H179" t="n">
         <v>1.145</v>
@@ -14880,7 +14880,7 @@
         <v>0.885</v>
       </c>
       <c r="G180" t="n">
-        <v>0.852033333333333</v>
+        <v>0.8520616666666671</v>
       </c>
       <c r="H180" t="n">
         <v>1.145</v>
@@ -15427,10 +15427,10 @@
         <v>1.2</v>
       </c>
       <c r="G187" t="n">
-        <v>1.48477267460907</v>
+        <v>1.44560065558686</v>
       </c>
       <c r="H187" t="n">
-        <v>6.38330316727282</v>
+        <v>5.02162203993545</v>
       </c>
       <c r="I187" t="n">
         <v>3.8</v>
@@ -15508,7 +15508,7 @@
         <v>0.012</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0124244226276669</v>
+        <v>0.0124265961849591</v>
       </c>
       <c r="H188" t="n">
         <v>0.074</v>
@@ -15589,7 +15589,7 @@
         <v>0.012</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0124244226276669</v>
+        <v>0.0124265961849591</v>
       </c>
       <c r="H189" t="n">
         <v>0.074</v>
@@ -16084,10 +16084,10 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.00848</v>
+        <v>0.00889</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0141952676843607</v>
+        <v>0.0143866225887595</v>
       </c>
       <c r="H195" t="n">
         <v>0.0672643911474704</v>
@@ -16098,10 +16098,10 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
-        <v>0.01127</v>
+        <v>0.01173</v>
       </c>
       <c r="M195" t="n">
-        <v>0.02224</v>
+        <v>0.02225</v>
       </c>
       <c r="N195" t="n">
         <v>0.0397</v>
@@ -16165,10 +16165,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.00848</v>
+        <v>0.00889</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0141952676843607</v>
+        <v>0.0143866225887595</v>
       </c>
       <c r="H196" t="n">
         <v>0.0672643911474704</v>
@@ -16179,10 +16179,10 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>0.01127</v>
+        <v>0.01173</v>
       </c>
       <c r="M196" t="n">
-        <v>0.02224</v>
+        <v>0.02225</v>
       </c>
       <c r="N196" t="n">
         <v>0.0397</v>
@@ -16484,7 +16484,7 @@
         <v>0.885</v>
       </c>
       <c r="G200" t="n">
-        <v>0.860762711864407</v>
+        <v>0.86078813559322</v>
       </c>
       <c r="H200" t="n">
         <v>1.145</v>
@@ -16561,7 +16561,7 @@
         <v>0.885</v>
       </c>
       <c r="G201" t="n">
-        <v>0.860762711864407</v>
+        <v>0.86078813559322</v>
       </c>
       <c r="H201" t="n">
         <v>1.145</v>
@@ -17108,13 +17108,13 @@
         <v>1.2</v>
       </c>
       <c r="G208" t="n">
-        <v>1.64038267794973</v>
+        <v>1.67920529827425</v>
       </c>
       <c r="H208" t="n">
-        <v>6.38330316727282</v>
+        <v>7.31450916317636</v>
       </c>
       <c r="I208" t="n">
-        <v>4.46754</v>
+        <v>4.98281</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17125,7 +17125,7 @@
         <v>3.392</v>
       </c>
       <c r="N208" t="n">
-        <v>4.17821</v>
+        <v>4.57232</v>
       </c>
       <c r="O208" t="n">
         <v>1848331</v>
@@ -17189,7 +17189,7 @@
         <v>0.011</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0115031116102975</v>
+        <v>0.0115047087861592</v>
       </c>
       <c r="H209" t="n">
         <v>0.038</v>
@@ -17270,7 +17270,7 @@
         <v>0.011</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0115031116102975</v>
+        <v>0.0115047087861592</v>
       </c>
       <c r="H210" t="n">
         <v>0.038</v>
@@ -17765,10 +17765,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00946</v>
+        <v>0.00991</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0218014275844884</v>
+        <v>0.0219482290910475</v>
       </c>
       <c r="H216" t="n">
         <v>0.389666165112586</v>
@@ -17779,7 +17779,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>0.0129</v>
+        <v>0.01313</v>
       </c>
       <c r="M216" t="n">
         <v>0.02459</v>
@@ -17846,10 +17846,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.00946</v>
+        <v>0.00991</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0218014275844884</v>
+        <v>0.0219482290910475</v>
       </c>
       <c r="H217" t="n">
         <v>0.389666165112586</v>
@@ -17860,7 +17860,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>0.0129</v>
+        <v>0.01313</v>
       </c>
       <c r="M217" t="n">
         <v>0.02459</v>
@@ -18165,7 +18165,7 @@
         <v>0.886</v>
       </c>
       <c r="G221" t="n">
-        <v>0.869101694915254</v>
+        <v>0.869118644067797</v>
       </c>
       <c r="H221" t="n">
         <v>1.22</v>
@@ -18242,7 +18242,7 @@
         <v>0.886</v>
       </c>
       <c r="G222" t="n">
-        <v>0.869101694915254</v>
+        <v>0.869118644067797</v>
       </c>
       <c r="H222" t="n">
         <v>1.22</v>
@@ -18789,13 +18789,13 @@
         <v>1.2</v>
       </c>
       <c r="G229" t="n">
-        <v>1.72550599275736</v>
+        <v>1.76717957166849</v>
       </c>
       <c r="H229" t="n">
-        <v>6.38330316727282</v>
+        <v>7.31450916317636</v>
       </c>
       <c r="I229" t="n">
-        <v>4.54391</v>
+        <v>5.00222</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18806,7 +18806,7 @@
         <v>3.5</v>
       </c>
       <c r="N229" t="n">
-        <v>4.20692</v>
+        <v>4.68543</v>
       </c>
       <c r="O229" t="n">
         <v>1848331</v>
@@ -18870,7 +18870,7 @@
         <v>0.011</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0117760651819555</v>
+        <v>0.0117777785160617</v>
       </c>
       <c r="H230" t="n">
         <v>0.038</v>
@@ -18951,7 +18951,7 @@
         <v>0.011</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0117760651819555</v>
+        <v>0.0117777785160617</v>
       </c>
       <c r="H231" t="n">
         <v>0.038</v>
@@ -19449,7 +19449,7 @@
         <v>0.01184</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0232275867225836</v>
+        <v>0.0233217144500973</v>
       </c>
       <c r="H237" t="n">
         <v>0.389666165112586</v>
@@ -19460,7 +19460,7 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>0.01307</v>
+        <v>0.0133</v>
       </c>
       <c r="M237" t="n">
         <v>0.02676</v>
@@ -19530,7 +19530,7 @@
         <v>0.01184</v>
       </c>
       <c r="G238" t="n">
-        <v>0.0232275867225836</v>
+        <v>0.0233217144500973</v>
       </c>
       <c r="H238" t="n">
         <v>0.389666165112586</v>
@@ -19541,7 +19541,7 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
-        <v>0.01307</v>
+        <v>0.0133</v>
       </c>
       <c r="M238" t="n">
         <v>0.02676</v>
@@ -19846,7 +19846,7 @@
         <v>0.899</v>
       </c>
       <c r="G242" t="n">
-        <v>0.869854545454545</v>
+        <v>0.869872727272727</v>
       </c>
       <c r="H242" t="n">
         <v>1.22</v>
@@ -19923,7 +19923,7 @@
         <v>0.899</v>
       </c>
       <c r="G243" t="n">
-        <v>0.869854545454545</v>
+        <v>0.869872727272727</v>
       </c>
       <c r="H243" t="n">
         <v>1.22</v>
@@ -20282,6 +20282,1687 @@
         </is>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.4304</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.4155</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.49735</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="G249" t="n">
+        <v>98.1720588235294</v>
+      </c>
+      <c r="H249" t="n">
+        <v>270</v>
+      </c>
+      <c r="I249" t="n">
+        <v>217</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="M249" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="N249" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1.82435393740197</v>
+      </c>
+      <c r="H250" t="n">
+        <v>7.31450916317636</v>
+      </c>
+      <c r="I250" t="n">
+        <v>5.02162</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N250" t="n">
+        <v>4.77876</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.0110778991206185</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.01875</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.01615</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.0110778991206185</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.01875</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.01615</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>220</v>
+      </c>
+      <c r="G253" t="n">
+        <v>2610.54545454545</v>
+      </c>
+      <c r="H253" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I253" t="n">
+        <v>5325</v>
+      </c>
+      <c r="J253" t="n">
+        <v>30.9090909090909</v>
+      </c>
+      <c r="K253" t="n">
+        <v>45.4545454545455</v>
+      </c>
+      <c r="L253" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1204.5</v>
+      </c>
+      <c r="N253" t="n">
+        <v>3734.7</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>220</v>
+      </c>
+      <c r="G254" t="n">
+        <v>2610.54545454545</v>
+      </c>
+      <c r="H254" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I254" t="n">
+        <v>5325</v>
+      </c>
+      <c r="J254" t="n">
+        <v>30.9090909090909</v>
+      </c>
+      <c r="K254" t="n">
+        <v>45.4545454545455</v>
+      </c>
+      <c r="L254" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1204.5</v>
+      </c>
+      <c r="N254" t="n">
+        <v>3734.7</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>220</v>
+      </c>
+      <c r="G255" t="n">
+        <v>2610.54545454545</v>
+      </c>
+      <c r="H255" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I255" t="n">
+        <v>5325</v>
+      </c>
+      <c r="J255" t="n">
+        <v>30.9090909090909</v>
+      </c>
+      <c r="K255" t="n">
+        <v>45.4545454545455</v>
+      </c>
+      <c r="L255" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1204.5</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3734.7</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P255" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>220</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2610.54545454545</v>
+      </c>
+      <c r="H256" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I256" t="n">
+        <v>5325</v>
+      </c>
+      <c r="J256" t="n">
+        <v>30.9090909090909</v>
+      </c>
+      <c r="K256" t="n">
+        <v>45.4545454545455</v>
+      </c>
+      <c r="L256" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1204.5</v>
+      </c>
+      <c r="N256" t="n">
+        <v>3734.7</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>110</v>
+      </c>
+      <c r="G257" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="H257" t="n">
+        <v>113.33</v>
+      </c>
+      <c r="I257" t="n">
+        <v>113.33</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="M257" t="n">
+        <v>112.5145</v>
+      </c>
+      <c r="N257" t="n">
+        <v>113.33</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0.01259</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.0227614919082015</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.389666165112586</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.06325</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>0.01354</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.02414</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.04129</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0.01259</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.0227614919082015</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.389666165112586</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.06325</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>0.01354</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.02414</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.04129</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.888545454545455</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.9205</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1.0415</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.888545454545455</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.9205</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1.0415</v>
+      </c>
+      <c r="N261" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G262" t="n">
+        <v>4.8796</v>
+      </c>
+      <c r="H262" t="n">
+        <v>6.569</v>
+      </c>
+      <c r="I262" t="n">
+        <v>6.569</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>4.515</v>
+      </c>
+      <c r="M262" t="n">
+        <v>5.9005</v>
+      </c>
+      <c r="N262" t="n">
+        <v>6.569</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.9068000000000001</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1.298</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1.14913</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>0.9365</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1.0591</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1.1324</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.9068000000000001</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1.298</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1.14913</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0.9365</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1.0591</v>
+      </c>
+      <c r="N264" t="n">
+        <v>1.1324</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1.07872727272727</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1.4925</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1.07872727272727</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.4925</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M266" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0773272727272727</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.06475</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.2204</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0773272727272727</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.06475</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.2204</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
+++ b/state_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
@@ -13743,13 +13743,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>1.24014886472653</v>
+        <v>1.28461992738354</v>
       </c>
       <c r="H166" t="n">
-        <v>5.02162203993545</v>
+        <v>6.58551293112593</v>
       </c>
       <c r="I166" t="n">
         <v>3.82</v>
@@ -15427,10 +15427,10 @@
         <v>1.2</v>
       </c>
       <c r="G187" t="n">
-        <v>1.44560065558686</v>
+        <v>1.48926315346829</v>
       </c>
       <c r="H187" t="n">
-        <v>5.02162203993545</v>
+        <v>6.58551293112593</v>
       </c>
       <c r="I187" t="n">
         <v>3.8</v>
@@ -17108,13 +17108,13 @@
         <v>1.2</v>
       </c>
       <c r="G208" t="n">
-        <v>1.67920529827425</v>
+        <v>1.64564982440096</v>
       </c>
       <c r="H208" t="n">
-        <v>7.31450916317636</v>
+        <v>6.58551293112593</v>
       </c>
       <c r="I208" t="n">
-        <v>4.98281</v>
+        <v>4.58956</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17125,7 +17125,7 @@
         <v>3.392</v>
       </c>
       <c r="N208" t="n">
-        <v>4.57232</v>
+        <v>4.18031</v>
       </c>
       <c r="O208" t="n">
         <v>1848331</v>
@@ -18786,16 +18786,16 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1.2</v>
+        <v>1.21198</v>
       </c>
       <c r="G229" t="n">
-        <v>1.76717957166849</v>
+        <v>1.73113850713791</v>
       </c>
       <c r="H229" t="n">
-        <v>7.31450916317636</v>
+        <v>6.58551293112593</v>
       </c>
       <c r="I229" t="n">
-        <v>5.00222</v>
+        <v>4.69417</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18806,7 +18806,7 @@
         <v>3.5</v>
       </c>
       <c r="N229" t="n">
-        <v>4.68543</v>
+        <v>4.21363</v>
       </c>
       <c r="O229" t="n">
         <v>1848331</v>
@@ -20467,16 +20467,16 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1.25</v>
+        <v>1.26198</v>
       </c>
       <c r="G250" t="n">
-        <v>1.82435393740197</v>
+        <v>1.78542958770894</v>
       </c>
       <c r="H250" t="n">
-        <v>7.31450916317636</v>
+        <v>6.58551293112593</v>
       </c>
       <c r="I250" t="n">
-        <v>5.02162</v>
+        <v>4.79877</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -20487,7 +20487,7 @@
         <v>3.5</v>
       </c>
       <c r="N250" t="n">
-        <v>4.77876</v>
+        <v>4.23786</v>
       </c>
       <c r="O250" t="n">
         <v>1848331</v>
